--- a/Lexis-GLOBAL/Coredata/USER_JURISDICTION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_JURISDICTION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\RestAssured\Lexis-GLOBAL\Coredata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87839DAC-083E-490F-B389-30DC862CC471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73C005-1766-4B17-8CC3-A0EB8B5FD684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserJurisdiction_Create" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE6ABC-D574-4C35-9F8E-535D1C68627F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Lexis-GLOBAL/Coredata/USER_JURISDICTION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_JURISDICTION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73C005-1766-4B17-8CC3-A0EB8B5FD684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D583D315-E857-49CB-AE6C-B8C5D44D77B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="55">
   <si>
     <t>S.No</t>
   </si>
@@ -143,6 +143,57 @@
   </si>
   <si>
     <t>api/v1/UserJurisdiction/UpdateDefaultJurisdiction</t>
+  </si>
+  <si>
+    <t>RegionalAdmin</t>
+  </si>
+  <si>
+    <t>CompanyAdmin</t>
+  </si>
+  <si>
+    <t>AccountIT</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>NormalUser</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Valid_RegionalUsername</t>
+  </si>
+  <si>
+    <t>Valid_RegionalPassword</t>
+  </si>
+  <si>
+    <t>Valid_CompanyAdminUsername</t>
+  </si>
+  <si>
+    <t>Valid_CompanyAdminPassword</t>
+  </si>
+  <si>
+    <t>Valid_AccountITUsername</t>
+  </si>
+  <si>
+    <t>Valid_AccountITPassword</t>
+  </si>
+  <si>
+    <t>Valid_ApproverUsername</t>
+  </si>
+  <si>
+    <t>Valid_ApproverPassword</t>
+  </si>
+  <si>
+    <t>Valid_NormalUsername</t>
+  </si>
+  <si>
+    <t>Valid_NormalPassword</t>
   </si>
 </sst>
 </file>
@@ -215,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,17 +569,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
@@ -533,9 +587,9 @@
     <col min="10" max="10" width="20.7265625" customWidth="1"/>
     <col min="11" max="11" width="21.08984375" customWidth="1"/>
     <col min="12" max="12" width="21.26953125" customWidth="1"/>
-    <col min="13" max="16" width="18.08984375" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6328125" customWidth="1"/>
+    <col min="13" max="16" width="18.08984375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.08984375" customWidth="1"/>
+    <col min="18" max="18" width="27.54296875" customWidth="1"/>
     <col min="19" max="19" width="9.81640625" customWidth="1"/>
     <col min="20" max="20" width="15.453125" customWidth="1"/>
   </cols>
@@ -662,6 +716,306 @@
       </c>
       <c r="T2" s="4"/>
     </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -669,25 +1023,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDAAB6-6CCE-4DC1-A6CA-6E5B33B5A72A}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Q2" sqref="Q2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
     <col min="8" max="9" width="18.08984375" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" customWidth="1"/>
-    <col min="11" max="16" width="18.08984375" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6328125" customWidth="1"/>
+    <col min="11" max="16" width="18.08984375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" customWidth="1"/>
+    <col min="18" max="18" width="27.7265625" customWidth="1"/>
     <col min="19" max="19" width="9.81640625" customWidth="1"/>
     <col min="20" max="20" width="15.453125" customWidth="1"/>
   </cols>
@@ -754,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -764,7 +1118,7 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -814,32 +1168,333 @@
       </c>
       <c r="T2" s="4"/>
     </row>
+    <row r="3" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92776494-55FF-426E-B611-4AA5EDF7CE4F}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
     <col min="8" max="9" width="18.08984375" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" customWidth="1"/>
-    <col min="11" max="16" width="18.08984375" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6328125" customWidth="1"/>
+    <col min="11" max="16" width="18.08984375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.81640625" customWidth="1"/>
+    <col min="18" max="18" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.81640625" customWidth="1"/>
     <col min="20" max="20" width="15.453125" customWidth="1"/>
   </cols>
@@ -906,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -916,7 +1571,7 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -965,6 +1620,306 @@
         <v>17</v>
       </c>
       <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,27 +1928,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B152CD-4E49-40D9-B5A7-D713FB6E173A}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
     <col min="8" max="9" width="18.08984375" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" customWidth="1"/>
     <col min="11" max="11" width="20.54296875" customWidth="1"/>
-    <col min="12" max="12" width="20.26953125" customWidth="1"/>
-    <col min="13" max="16" width="18.08984375" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6328125" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="18.08984375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.08984375" customWidth="1"/>
+    <col min="18" max="18" width="28.08984375" customWidth="1"/>
     <col min="19" max="19" width="9.81640625" customWidth="1"/>
     <col min="20" max="20" width="15.453125" customWidth="1"/>
   </cols>
@@ -1070,7 +2025,7 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1119,6 +2074,306 @@
         <v>17</v>
       </c>
       <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1127,27 +2382,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE6ABC-D574-4C35-9F8E-535D1C68627F}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
     <col min="8" max="9" width="18.08984375" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" customWidth="1"/>
     <col min="11" max="11" width="28.08984375" customWidth="1"/>
-    <col min="12" max="12" width="27.1796875" customWidth="1"/>
-    <col min="13" max="16" width="18.08984375" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6328125" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="18.08984375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.453125" customWidth="1"/>
+    <col min="18" max="18" width="27.08984375" customWidth="1"/>
     <col min="19" max="19" width="9.81640625" customWidth="1"/>
     <col min="20" max="20" width="15.453125" customWidth="1"/>
   </cols>
@@ -1222,9 +2477,9 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1273,6 +2528,306 @@
         <v>17</v>
       </c>
       <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
